--- a/bdfdm.xlsx
+++ b/bdfdm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARGENIS-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARGENIS-PC\Documents\GitHub\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="215">
   <si>
     <t>fechainicio</t>
   </si>
@@ -1374,6 +1374,9 @@
   </si>
   <si>
     <t>idDatoPersonalMama</t>
+  </si>
+  <si>
+    <t>idCursosInstructores</t>
   </si>
 </sst>
 </file>
@@ -1829,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="K36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,7 +2644,7 @@
         <v>70</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>92</v>

--- a/bdfdm.xlsx
+++ b/bdfdm.xlsx
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="214">
   <si>
     <t>fechainicio</t>
   </si>
@@ -1374,9 +1374,6 @@
   </si>
   <si>
     <t>idDatoPersonalMama</t>
-  </si>
-  <si>
-    <t>idCursosInstructores</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
@@ -2644,7 +2641,7 @@
         <v>70</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>92</v>

--- a/bdfdm.xlsx
+++ b/bdfdm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARGENIS-PC\Documents\GitHub\tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARGENIS-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="J13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="J14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="L19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0" shapeId="0">
+    <comment ref="L21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,6 +232,34 @@
           <t xml:space="preserve">
 averiguar
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Usuario de Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+partidos ganados, empatados, perdidos, puntos a favor y en contra
+combate ganado, perdido, puntos a favor y en contra
+marca anterior, la competencia, oficial
+partidos ganados, empatados, perdidos, puntos a favor y en contra
+intentos fallidos, realizados, arranque , envion</t>
         </r>
       </text>
     </comment>
@@ -259,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K32" authorId="0" shapeId="0">
+    <comment ref="N32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M33" authorId="0" shapeId="0">
+    <comment ref="P33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O33" authorId="0" shapeId="0">
+    <comment ref="R33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +369,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0">
+    <comment ref="F34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Usuario de Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+esos datos se tomaran de la asistencia consolidada</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K40" authorId="0" shapeId="0">
+    <comment ref="N40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M40" authorId="0" shapeId="0">
+    <comment ref="P40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O41" authorId="0" shapeId="0">
+    <comment ref="R41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F54" authorId="0" shapeId="0">
+    <comment ref="H54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F60" authorId="0" shapeId="0">
+    <comment ref="H60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D63" authorId="0" shapeId="0">
+    <comment ref="F63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I78" authorId="0" shapeId="0">
+    <comment ref="L78" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I86" authorId="0" shapeId="0">
+    <comment ref="L86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -679,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K87" authorId="0" shapeId="0">
+    <comment ref="N87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -703,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I89" authorId="0" shapeId="0">
+    <comment ref="L89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -732,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="235">
   <si>
     <t>fechainicio</t>
   </si>
@@ -1374,6 +1426,69 @@
   </si>
   <si>
     <t>idDatoPersonalMama</t>
+  </si>
+  <si>
+    <t>controlesCompetencias</t>
+  </si>
+  <si>
+    <t>idcontrolCompetencia</t>
+  </si>
+  <si>
+    <t>numeroEquipos</t>
+  </si>
+  <si>
+    <t>objetivos</t>
+  </si>
+  <si>
+    <t>evaluacionesPreparaciones</t>
+  </si>
+  <si>
+    <t>idevaluacionPreparacion</t>
+  </si>
+  <si>
+    <t>preparacionFisica</t>
+  </si>
+  <si>
+    <t>preparacionTecnicoTactico</t>
+  </si>
+  <si>
+    <t>preparacionPsicologica</t>
+  </si>
+  <si>
+    <t>disciplina</t>
+  </si>
+  <si>
+    <t>ubicacionPropuesto</t>
+  </si>
+  <si>
+    <t>ubicacionPropuesta</t>
+  </si>
+  <si>
+    <t>ubicacionLograda</t>
+  </si>
+  <si>
+    <t>evaluacionesResultados</t>
+  </si>
+  <si>
+    <t>idEvaluacionResultado</t>
+  </si>
+  <si>
+    <t>porcentajeEfectividad</t>
+  </si>
+  <si>
+    <t>evaluacionResultadosDetalles</t>
+  </si>
+  <si>
+    <t>detalle</t>
+  </si>
+  <si>
+    <t>idDetalle</t>
+  </si>
+  <si>
+    <t>Detalles</t>
+  </si>
+  <si>
+    <t>valor</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1546,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1492,6 +1607,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1520,7 +1641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1542,6 +1663,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1827,1228 +1953,1430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:Q103"/>
+  <dimension ref="B4:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="40.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="35.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="33" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="40.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="36.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="35.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="10"/>
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="10"/>
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="11"/>
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="11"/>
+      <c r="L5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1"/>
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="L7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I8" s="2" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I9" s="2" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="10"/>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="11"/>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I15" s="2" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I16" s="2" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I17" s="2" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="15" t="s">
+      <c r="C18" s="10"/>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C19" s="11"/>
       <c r="F19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="F20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="C23" s="21"/>
       <c r="F23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="25" t="s">
+        <v>233</v>
+      </c>
       <c r="F24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="F25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D29" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="10"/>
-      <c r="D30" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F28" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="10"/>
+      <c r="L30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="N30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="P30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="R30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="T30" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="11"/>
-      <c r="D31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="4" t="s">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="11"/>
+      <c r="L31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="T31" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1"/>
+      <c r="L32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="C33" s="11"/>
+      <c r="F33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="C34" s="1"/>
+      <c r="F34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="C35" s="1"/>
+      <c r="F35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="C36" s="1"/>
+      <c r="F36" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="C37" s="1"/>
+      <c r="F37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="C38" s="1"/>
+      <c r="H38" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="I38" s="11"/>
+      <c r="N38" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="P38" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="R38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Q38" s="6" t="s">
+      <c r="T38" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="C39" s="1"/>
+      <c r="F39" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="I39" s="1"/>
+      <c r="N39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="T39" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="C40" s="1"/>
+      <c r="F40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="R40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="T40" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="C41" s="1"/>
+      <c r="F41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="R41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="T41" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="C42" s="1"/>
+      <c r="H42" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="21"/>
+      <c r="L42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="R42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="T42" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="C43" s="1"/>
+      <c r="F43" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="1"/>
+      <c r="L43" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="C44" s="21"/>
       <c r="F44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="1"/>
+      <c r="L44" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F45" s="5" t="s">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="21"/>
+      <c r="L45" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="N45" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="P45" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="O45" s="6" t="s">
+      <c r="R45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="Q45" s="6" t="s">
+      <c r="T45" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I46" s="2" t="s">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L46" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="N46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="P46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="R46" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="T46" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I47" s="2" t="s">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L47" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="P47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="R47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="T47" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I48" s="2" t="s">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L48" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="P48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="R48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="T48" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="10"/>
+      <c r="F49" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="H49" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="24"/>
+      <c r="L49" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="R49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="T49" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="11"/>
+      <c r="F50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="H50" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="23"/>
+      <c r="L50" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="1"/>
+      <c r="F51" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="H51" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="23"/>
+      <c r="L51" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="1"/>
+      <c r="F52" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="H52" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="23"/>
+      <c r="L52" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="21"/>
+      <c r="F53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="H53" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="24"/>
+      <c r="L53" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="C54" s="21"/>
+      <c r="H54" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="I54" s="24"/>
+      <c r="N54" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="M54" s="9" t="s">
+      <c r="P54" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="O54" s="9" t="s">
+      <c r="R54" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q54" s="9" t="s">
+      <c r="T54" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="C55" s="21"/>
+      <c r="N55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="P55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O55" s="8" t="s">
+      <c r="R55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q55" s="8" t="s">
+      <c r="T55" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D56" s="14" t="s">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F56" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="H56" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="I56" s="10"/>
+      <c r="J56" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="N56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="P56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q56" s="2" t="s">
+      <c r="R56" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D57" s="4" t="s">
+      <c r="T56" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F57" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="I57" s="11"/>
+      <c r="J57" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D58" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="N57" s="21"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F58" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="C59" s="10"/>
+      <c r="F59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="I59" s="1"/>
+      <c r="N59" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M59" s="9" t="s">
+      <c r="P59" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="O59" s="9" t="s">
+      <c r="R59" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="Q59" s="9" t="s">
+      <c r="T59" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="11"/>
+      <c r="F60" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="I60" s="1"/>
+      <c r="N60" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M60" s="8" t="s">
+      <c r="P60" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O60" s="8" t="s">
+      <c r="R60" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q60" s="8" t="s">
+      <c r="T60" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="C61" s="1"/>
+      <c r="F61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="I61" s="1"/>
+      <c r="N61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M61" s="2" t="s">
+      <c r="P61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="R61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="T61" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="C62" s="1"/>
+      <c r="F62" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="C63" s="1"/>
+      <c r="F63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="1"/>
+      <c r="F64" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K64" s="9" t="s">
+      <c r="I64" s="1"/>
+      <c r="N64" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M64" s="9" t="s">
+      <c r="P64" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="O64" s="9" t="s">
+      <c r="R64" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Q64" s="9" t="s">
+      <c r="T64" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K65" s="8" t="s">
+      <c r="C65" s="21"/>
+      <c r="N65" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M65" s="8" t="s">
+      <c r="P65" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O65" s="8" t="s">
+      <c r="R65" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q65" s="8" t="s">
+      <c r="T65" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K66" s="2" t="s">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N66" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="P66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="R66" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="T66" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="21"/>
+      <c r="F70" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="C71" s="11"/>
+      <c r="F71" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" s="1"/>
+      <c r="F72" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="C76" s="21"/>
+      <c r="H76" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="I76" s="21"/>
+      <c r="L76" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="C77" s="11"/>
+      <c r="H77" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" s="1"/>
+      <c r="L77" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="C78" s="1"/>
+      <c r="H78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="1"/>
+      <c r="L78" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F79" s="5" t="s">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H79" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I83" s="17" t="s">
+      <c r="I79" s="21"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L83" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="K83" s="17" t="s">
+      <c r="N83" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="C84" s="21"/>
+      <c r="F84" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="H84" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" s="21"/>
+      <c r="L84" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="N84" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="C85" s="1"/>
       <c r="F85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="H85" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="L85" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="N85" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="C86" s="1"/>
+      <c r="F86" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="1"/>
+      <c r="L86" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="N86" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="C87" s="1"/>
+      <c r="F87" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="N87" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="C88" s="1"/>
+      <c r="F88" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="N88" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="C89" s="1"/>
+      <c r="F89" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="N89" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="C90" s="1"/>
+      <c r="F90" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="N90" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="C91" s="1"/>
+      <c r="F91" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="N91" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="C92" s="1"/>
+      <c r="F92" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="N92" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D93" s="2" t="s">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F93" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="16" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="21"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="C103" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bdfdm.xlsx
+++ b/bdfdm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARGENIS-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\PC\Documents\GitHub\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1494,7 +1494,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1641,7 +1641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1668,6 +1668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1955,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,10 +2006,10 @@
         <v>146</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="26" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="11"/>
@@ -2027,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="1"/>
@@ -2091,7 +2092,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="11"/>
@@ -2112,7 +2113,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1"/>
@@ -2222,7 +2223,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11"/>
@@ -2247,7 +2248,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1"/>

--- a/bdfdm.xlsx
+++ b/bdfdm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\PC\Documents\GitHub\tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARGENIS-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -235,6 +235,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Usuario de Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ubicación propuesta general de todo el equipo</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D26" authorId="0" shapeId="0">
       <text>
         <r>
@@ -784,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="256">
   <si>
     <t>fechainicio</t>
   </si>
@@ -1002,9 +1026,6 @@
     <t>curso</t>
   </si>
   <si>
-    <t>rango</t>
-  </si>
-  <si>
     <t>CursosInstructores</t>
   </si>
   <si>
@@ -1056,18 +1077,12 @@
     <t>eventos</t>
   </si>
   <si>
-    <t>resultados</t>
-  </si>
-  <si>
     <t>ContribucionesCientificas</t>
   </si>
   <si>
     <t>idContribucionCientifica</t>
   </si>
   <si>
-    <t>numeroAportaciones</t>
-  </si>
-  <si>
     <t>Reconocimientos</t>
   </si>
   <si>
@@ -1077,9 +1092,6 @@
     <t>nivelReconocimiento</t>
   </si>
   <si>
-    <t>numeroReconocimiento</t>
-  </si>
-  <si>
     <t>idExperienciaDirectivo</t>
   </si>
   <si>
@@ -1489,12 +1501,87 @@
   </si>
   <si>
     <t>valor</t>
+  </si>
+  <si>
+    <t>1 a 5</t>
+  </si>
+  <si>
+    <t>6 a 10</t>
+  </si>
+  <si>
+    <t>11 a 15</t>
+  </si>
+  <si>
+    <t>mas de 15</t>
+  </si>
+  <si>
+    <t>1 a 3</t>
+  </si>
+  <si>
+    <t>4 a 7</t>
+  </si>
+  <si>
+    <t>7 a 10</t>
+  </si>
+  <si>
+    <t>mas de 10</t>
+  </si>
+  <si>
+    <t>1 año</t>
+  </si>
+  <si>
+    <t>2 años</t>
+  </si>
+  <si>
+    <t>3 años</t>
+  </si>
+  <si>
+    <t>mas de 3 años</t>
+  </si>
+  <si>
+    <t>1 a 5 años</t>
+  </si>
+  <si>
+    <t>6 a 10 años</t>
+  </si>
+  <si>
+    <t>11 a 15 años</t>
+  </si>
+  <si>
+    <t>1 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 años </t>
+  </si>
+  <si>
+    <t>clasificar</t>
+  </si>
+  <si>
+    <t>oro</t>
+  </si>
+  <si>
+    <t>plata</t>
+  </si>
+  <si>
+    <t>bronce</t>
+  </si>
+  <si>
+    <t>1 a 2</t>
+  </si>
+  <si>
+    <t>3 a 4</t>
+  </si>
+  <si>
+    <t>mas de 4</t>
+  </si>
+  <si>
+    <t>4 a 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1668,7 +1755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1956,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,13 +2090,13 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="11"/>
@@ -2028,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="1"/>
@@ -2072,14 +2159,14 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C10" s="10"/>
       <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>23</v>
@@ -2088,11 +2175,11 @@
         <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="11"/>
@@ -2113,7 +2200,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1"/>
@@ -2135,7 +2222,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D13" s="25" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E13" s="22"/>
       <c r="G13" s="2" t="s">
@@ -2150,7 +2237,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>16</v>
@@ -2164,7 +2251,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>47</v>
@@ -2172,10 +2259,10 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>48</v>
@@ -2189,7 +2276,7 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>49</v>
@@ -2203,14 +2290,14 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C18" s="10"/>
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>50</v>
@@ -2223,21 +2310,21 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11"/>
       <c r="F19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>227</v>
+        <v>131</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" s="26" t="s">
         <v>54</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2248,15 +2335,15 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1"/>
       <c r="F20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>228</v>
+      <c r="H20" s="26" t="s">
+        <v>224</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>58</v>
@@ -2267,15 +2354,15 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21" s="26" t="s">
         <v>215</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L21" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" s="26" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2283,14 +2370,14 @@
       <c r="F22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>229</v>
+      <c r="H22" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>115</v>
+        <v>190</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>41</v>
@@ -2301,11 +2388,11 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C23" s="21"/>
       <c r="F23" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>11</v>
@@ -2319,14 +2406,14 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>12</v>
@@ -2340,17 +2427,17 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>43</v>
@@ -2361,11 +2448,11 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>7</v>
@@ -2373,25 +2460,25 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F28" s="25" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F29" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>59</v>
@@ -2407,17 +2494,17 @@
         <v>69</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>6</v>
@@ -2433,21 +2520,21 @@
         <v>70</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>58</v>
@@ -2471,11 +2558,11 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C33" s="11"/>
       <c r="F33" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>60</v>
@@ -2484,13 +2571,13 @@
         <v>68</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
@@ -2499,205 +2586,241 @@
       </c>
       <c r="C34" s="1"/>
       <c r="F34" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1"/>
       <c r="F35" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="P35" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1"/>
       <c r="F36" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>64</v>
+        <v>189</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="F38" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="H38" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="I38" s="11"/>
       <c r="N38" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="F39" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="I39" s="1"/>
       <c r="N39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="F40" s="2" t="s">
-        <v>193</v>
+      <c r="D40" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="F41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>68</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1"/>
       <c r="H42" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I42" s="21"/>
       <c r="L42" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>68</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1"/>
       <c r="F43" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I43" s="1"/>
       <c r="L43" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C44" s="21"/>
       <c r="F44" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I44" s="1"/>
       <c r="L44" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
@@ -2705,193 +2828,209 @@
         <v>6</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I45" s="21"/>
       <c r="L45" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N45" s="1"/>
       <c r="P45" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="T45" s="6" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L46" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="N46" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>84</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T46" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L47" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>75</v>
+        <v>202</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L48" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>79</v>
+        <v>246</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C49" s="10"/>
       <c r="F49" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I49" s="24"/>
       <c r="L49" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C50" s="11"/>
       <c r="F50" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I50" s="23"/>
       <c r="L50" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I51" s="23"/>
       <c r="L51" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I52" s="23"/>
       <c r="L52" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C53" s="21"/>
       <c r="F53" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I53" s="24"/>
       <c r="L53" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="R53" s="5" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C54" s="21"/>
       <c r="H54" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I54" s="24"/>
       <c r="N54" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="R54" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="T54" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C55" s="21"/>
       <c r="N55" s="8" t="s">
@@ -2900,8 +3039,8 @@
       <c r="P55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="R55" s="8" t="s">
-        <v>58</v>
+      <c r="R55" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>58</v>
@@ -2909,14 +3048,14 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F56" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>65</v>
@@ -2924,70 +3063,79 @@
       <c r="P56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R56" s="2" t="s">
-        <v>92</v>
+      <c r="R56" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F57" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N57" s="21"/>
+      <c r="P57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F58" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C59" s="10"/>
       <c r="F59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="I59" s="1"/>
       <c r="N59" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="R59" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="T59" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C60" s="11"/>
       <c r="F60" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>63</v>
@@ -2999,8 +3147,8 @@
       <c r="P60" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="R60" s="8" t="s">
-        <v>58</v>
+      <c r="R60" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="T60" s="8" t="s">
         <v>58</v>
@@ -3008,54 +3156,66 @@
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I61" s="1"/>
       <c r="N61" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I62" s="1"/>
+      <c r="N62" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C63" s="1"/>
       <c r="F63" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I63" s="1"/>
+      <c r="R63" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
@@ -3063,38 +3223,38 @@
       </c>
       <c r="C64" s="1"/>
       <c r="F64" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I64" s="1"/>
       <c r="N64" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="R64" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="T64" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C65" s="21"/>
+      <c r="H65" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="N65" s="8" t="s">
         <v>58</v>
       </c>
       <c r="P65" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="R65" s="8" t="s">
-        <v>58</v>
+      <c r="R65" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="T65" s="8" t="s">
         <v>58</v>
@@ -3102,30 +3262,49 @@
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N66" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="R66" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N67" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R68" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C70" s="21"/>
       <c r="F70" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C71" s="11"/>
       <c r="F71" s="2" t="s">
@@ -3138,38 +3317,38 @@
       </c>
       <c r="C72" s="1"/>
       <c r="F72" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C76" s="21"/>
       <c r="H76" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I76" s="21"/>
       <c r="L76" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C77" s="11"/>
       <c r="H77" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I77" s="1"/>
       <c r="L77" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C78" s="1"/>
       <c r="H78" s="2" t="s">
@@ -3177,59 +3356,59 @@
       </c>
       <c r="I78" s="1"/>
       <c r="L78" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H79" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I79" s="21"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L83" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="N83" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="N83" s="17" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C84" s="21"/>
       <c r="F84" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I84" s="21"/>
       <c r="L84" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C85" s="1"/>
       <c r="F85" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I85" s="1"/>
       <c r="L85" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
@@ -3241,11 +3420,11 @@
         <v>19</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I86" s="1"/>
       <c r="L86" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>6</v>
@@ -3253,11 +3432,11 @@
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C87" s="1"/>
       <c r="F87" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>58</v>
@@ -3268,17 +3447,17 @@
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C88" s="1"/>
       <c r="F88" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
@@ -3287,65 +3466,65 @@
       </c>
       <c r="C89" s="1"/>
       <c r="F89" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="N89" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C90" s="1"/>
       <c r="F90" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C91" s="1"/>
       <c r="F91" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C92" s="1"/>
       <c r="F92" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F93" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C97" s="21"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C98" s="1"/>
     </row>
@@ -3357,13 +3536,13 @@
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C101" s="1"/>
     </row>
@@ -3375,7 +3554,7 @@
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C103" s="1"/>
     </row>

--- a/bdfdm.xlsx
+++ b/bdfdm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARGENIS-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\PC\Documents\GitHub\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,6 +27,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Usuario de Windows</author>
+    <author>PC</author>
   </authors>
   <commentList>
     <comment ref="F6" authorId="0" shapeId="0">
@@ -518,6 +519,30 @@
 6 a 10
 11 a 15
 mas de 15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>PC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+detalle de que se trata el instrumento</t>
         </r>
       </text>
     </comment>
@@ -808,7 +833,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="256">
   <si>
     <t>fechainicio</t>
   </si>
@@ -1581,7 +1606,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1633,7 +1658,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1700,6 +1725,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1728,7 +1759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1756,6 +1787,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2043,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T61" sqref="T61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,10 +2128,10 @@
         <v>142</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="27" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="11"/>
@@ -2115,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="25" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="1"/>
@@ -2179,7 +2214,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="11"/>
@@ -2200,7 +2235,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1"/>
@@ -2310,7 +2345,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11"/>
@@ -2335,7 +2370,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1"/>
@@ -2708,7 +2743,7 @@
         <v>208</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="28" t="s">
         <v>189</v>
       </c>
       <c r="L40" s="6" t="s">
@@ -2732,7 +2767,7 @@
         <v>209</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="28" t="s">
         <v>64</v>
       </c>
       <c r="L41" s="2" t="s">
@@ -2868,6 +2903,9 @@
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="L48" s="2" t="s">
         <v>149</v>
       </c>
@@ -2885,8 +2923,8 @@
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
-        <v>122</v>
+      <c r="B49" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="C49" s="10"/>
       <c r="F49" s="13" t="s">
@@ -2913,8 +2951,8 @@
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>123</v>
+      <c r="B50" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="C50" s="11"/>
       <c r="F50" s="2" t="s">
@@ -2941,7 +2979,7 @@
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="28" t="s">
         <v>124</v>
       </c>
       <c r="C51" s="1"/>
@@ -2969,7 +3007,7 @@
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="28" t="s">
         <v>149</v>
       </c>
       <c r="C52" s="1"/>
@@ -2991,7 +3029,7 @@
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="28" t="s">
         <v>150</v>
       </c>
       <c r="C53" s="21"/>
@@ -3010,7 +3048,7 @@
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="28" t="s">
         <v>151</v>
       </c>
       <c r="C54" s="21"/>
@@ -3029,7 +3067,7 @@
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="28" t="s">
         <v>152</v>
       </c>
       <c r="C55" s="21"/>
@@ -3303,7 +3341,7 @@
       </c>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="29" t="s">
         <v>154</v>
       </c>
       <c r="C71" s="11"/>
@@ -3312,7 +3350,7 @@
       </c>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="1"/>
@@ -3334,7 +3372,7 @@
       </c>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="29" t="s">
         <v>157</v>
       </c>
       <c r="C77" s="11"/>
@@ -3347,7 +3385,7 @@
       </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="28" t="s">
         <v>158</v>
       </c>
       <c r="C78" s="1"/>
